--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,13 +43,19 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>disappointed</t>
   </si>
   <si>
     <t>broke</t>
@@ -58,19 +64,19 @@
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>guess</t>
   </si>
   <si>
     <t>smaller</t>
@@ -82,31 +88,34 @@
     <t>missing</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
@@ -115,78 +124,63 @@
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>bit</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>3</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
@@ -196,10 +190,10 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
   </si>
   <si>
     <t>favorite</t>
@@ -602,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -689,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>0.7846153846153846</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -721,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7954545454545454</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -739,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>0.7678571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -771,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K5">
         <v>0.6774193548387096</v>
@@ -821,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -839,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>0.5283018867924528</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -863,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -871,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7233009708737864</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -889,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K7">
-        <v>0.453125</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -913,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -921,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -939,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -963,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -971,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6935483870967742</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C9">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D9">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,16 +986,16 @@
         <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>0.3327868852459017</v>
+        <v>0.339344262295082</v>
       </c>
       <c r="L9">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M9">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1013,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1021,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.668918918918919</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1039,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>0.2797704447632712</v>
+        <v>0.3185078909612625</v>
       </c>
       <c r="L10">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="M10">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1063,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1071,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.631578947368421</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1089,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.2593360995850623</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1113,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1121,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,16 +1136,16 @@
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>0.2583333333333334</v>
+        <v>0.225</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1163,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1171,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1189,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13">
-        <v>0.2108433734939759</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1213,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1221,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5546218487394958</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1239,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14">
-        <v>0.1896024464831804</v>
+        <v>0.1590214067278287</v>
       </c>
       <c r="L14">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="M14">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1263,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1271,38 +1265,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5454545454545454</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="L15">
         <v>30</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>30</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15">
-        <v>0.1216931216931217</v>
-      </c>
-      <c r="L15">
-        <v>23</v>
-      </c>
-      <c r="M15">
-        <v>23</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1313,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1321,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1339,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>0.1044176706827309</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1363,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1371,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5185185185185185</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.08238387379491674</v>
+        <v>0.08676599474145487</v>
       </c>
       <c r="L17">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1413,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1421,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1439,31 +1433,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K18">
-        <v>0.03569110966904607</v>
+        <v>0.04025974025974026</v>
       </c>
       <c r="L18">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>1486</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1471,13 +1465,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4869565217391305</v>
+        <v>0.4753623188405797</v>
       </c>
       <c r="C19">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D19">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1489,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1497,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4526315789473684</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1515,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1523,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4444444444444444</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1541,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1549,13 +1543,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4330708661417323</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C22">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1567,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1575,13 +1569,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.421875</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1593,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1601,13 +1595,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4216867469879518</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1619,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1627,13 +1621,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.360655737704918</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1645,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1653,25 +1647,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3203125</v>
+        <v>0.359375</v>
       </c>
       <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>41</v>
-      </c>
-      <c r="D26">
-        <v>41</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1679,13 +1673,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3168316831683168</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C27">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1697,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1705,13 +1699,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.303370786516854</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1723,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>62</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1731,13 +1725,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2559241706161137</v>
+        <v>0.2890625</v>
       </c>
       <c r="C29">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1749,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>157</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1757,13 +1751,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2527472527472527</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1775,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>68</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1783,13 +1777,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2525773195876289</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1801,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>145</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1809,13 +1803,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2346938775510204</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1827,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>75</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1835,13 +1829,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2033898305084746</v>
+        <v>0.211864406779661</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1853,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1861,13 +1855,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1884057971014493</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C34">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1879,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1887,13 +1881,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.188034188034188</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1905,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>95</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1913,13 +1907,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1857142857142857</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1931,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>114</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1939,25 +1933,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1634472511144131</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C37">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="E37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>563</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1965,25 +1959,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.16</v>
+        <v>0.1708766716196137</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>147</v>
+        <v>558</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1991,13 +1985,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1528662420382166</v>
+        <v>0.165</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2009,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2017,13 +2011,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1518987341772152</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C40">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2035,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2043,13 +2037,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2061,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2069,13 +2063,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1360759493670886</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C42">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2087,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>273</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2095,25 +2089,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1325648414985591</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>301</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2121,13 +2115,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1256830601092896</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2139,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>160</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2147,25 +2141,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1214953271028037</v>
+        <v>0.1152737752161383</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>188</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2173,13 +2167,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.118942731277533</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C46">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2191,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>400</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2199,13 +2193,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1013698630136986</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C47">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D47">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2217,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2225,13 +2219,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.09677419354838709</v>
+        <v>0.07349665924276169</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D48">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2243,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>224</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2251,25 +2245,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.09363295880149813</v>
+        <v>0.06754530477759473</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>242</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2277,25 +2271,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06743421052631579</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="C50">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>567</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2303,77 +2297,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0623608017817372</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.05092592592592592</v>
-      </c>
-      <c r="C52">
-        <v>22</v>
-      </c>
-      <c r="D52">
-        <v>24</v>
-      </c>
-      <c r="E52">
-        <v>0.08</v>
-      </c>
-      <c r="F52">
-        <v>0.92</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.03413400758533502</v>
-      </c>
-      <c r="C53">
-        <v>27</v>
-      </c>
-      <c r="D53">
-        <v>30</v>
-      </c>
-      <c r="E53">
-        <v>0.1</v>
-      </c>
-      <c r="F53">
-        <v>0.9</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
